--- a/forms/contact/person-create.xlsx
+++ b/forms/contact/person-create.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="195">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t xml:space="preserve">${phone2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregnant_at_registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregnant At Registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${currently_pregnant}</t>
   </si>
   <si>
     <t xml:space="preserve">person_phone</t>
@@ -447,6 +456,12 @@
   </si>
   <si>
     <t xml:space="preserve">Birth Weight (KG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. &gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight must be greater than zero</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -1200,14 +1215,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z56"/>
+  <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="H55" activeCellId="0" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1753,93 +1768,93 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1863,34 +1878,26 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>61</v>
-      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="13" t="s">
-        <v>62</v>
-      </c>
+      <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="14"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1907,34 +1914,34 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1951,19 +1958,34 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="13"/>
+      <c r="K22" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1978,132 +2000,135 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="s">
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="15"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="10"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" s="17" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="15"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="L26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
@@ -2113,93 +2138,98 @@
         <v>73</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>32</v>
+      <c r="K27" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L28" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
@@ -2219,6 +2249,7 @@
         <v>89</v>
       </c>
       <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2228,14 +2259,15 @@
       <c r="B31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>91</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="21" t="s">
-        <v>91</v>
+      <c r="I31" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="J31" s="6"/>
       <c r="L31" s="6"/>
@@ -2245,115 +2277,117 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6" t="s">
-        <v>93</v>
+      <c r="I32" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="J32" s="6"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22" t="s">
+      <c r="B33" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="L33" s="22" t="n">
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" s="23" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="L34" s="22" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="n">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>101</v>
-      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>102</v>
@@ -2361,137 +2395,120 @@
       <c r="C38" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="24"/>
+      <c r="D38" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="E38" s="25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26" t="s">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="27" t="s">
+      <c r="B40" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="27" t="s">
+      <c r="D40" s="27"/>
+      <c r="E40" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>114</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
+      <c r="B43" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>14</v>
-      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
@@ -2516,19 +2533,39 @@
       <c r="Y44" s="27"/>
       <c r="Z44" s="27"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="0" t="s">
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="C45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="27"/>
+      <c r="Z45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -2538,187 +2575,206 @@
         <v>121</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="28" t="s">
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="30" t="s">
+      <c r="B49" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
+      <c r="B51" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C53" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="0" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="E54" s="0" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3670,13 +3726,14 @@
     <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A3:A6">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A49">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
@@ -3691,256 +3748,256 @@
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
+  <conditionalFormatting sqref="A31">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+  <conditionalFormatting sqref="A35">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
+  <conditionalFormatting sqref="A27">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A26">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="containsText" priority="10" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A37="begin group", NOT($B37 = ""))</formula>
+      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
+  <conditionalFormatting sqref="D38">
     <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A37="begin repeat", NOT($B37 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
     <cfRule type="containsText" priority="16" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
+      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
+      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
+  <conditionalFormatting sqref="D39">
     <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Z39 A43:Z43">
+  <conditionalFormatting sqref="A40:Z40 A44:Z44">
     <cfRule type="containsText" priority="22" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Z39 A43:Z43">
+  <conditionalFormatting sqref="A40:Z40 A44:Z44">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A39="begin group", NOT($B39 = ""))</formula>
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Z39 A43:Z43">
+  <conditionalFormatting sqref="A40:Z40 A44:Z44">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Z39 A43:Z43">
+  <conditionalFormatting sqref="A40:Z40 A44:Z44">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39 I43">
+  <conditionalFormatting sqref="I40 I44">
     <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($I39 = "", $A39 = "calculate")</formula>
+      <formula>AND($I40 = "", $A40 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39 C43">
+  <conditionalFormatting sqref="C40 C44">
     <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $C39 = "")</formula>
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $C40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39 B43">
+  <conditionalFormatting sqref="B40 B44">
     <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39 A43">
+  <conditionalFormatting sqref="A40 A44">
     <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39 B43">
+  <conditionalFormatting sqref="B40 B44">
     <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>COUNTIF($B$2:$B$1010,B39)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1011,B40)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39 H43">
+  <conditionalFormatting sqref="H40 H44">
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(NOT($G39 = ""), $H39 = "")</formula>
+      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Z39 A43:Z43">
+  <conditionalFormatting sqref="A40:Z40 A44:Z44">
     <cfRule type="expression" priority="32" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A39="begin repeat", NOT($B39 = ""))</formula>
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:Z39 A43:Z43">
+  <conditionalFormatting sqref="A40:Z40 A44:Z44">
     <cfRule type="expression" priority="33" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G39 = "", $H39 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="containsText" priority="34" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="expression" priority="35" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+      <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="expression" priority="36" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="expression" priority="38" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+      <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D42">
+  <conditionalFormatting sqref="D41:D43">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
+  <conditionalFormatting sqref="A45:Z45">
     <cfRule type="containsText" priority="40" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
+  <conditionalFormatting sqref="A45:Z45">
     <cfRule type="expression" priority="41" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
+      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
+  <conditionalFormatting sqref="A45:Z45">
     <cfRule type="expression" priority="42" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
+  <conditionalFormatting sqref="A45:Z45">
     <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44">
+  <conditionalFormatting sqref="I45">
     <cfRule type="expression" priority="44" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>AND($I44 = "", $A44 = "calculate")</formula>
+      <formula>AND($I45 = "", $A45 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
+  <conditionalFormatting sqref="C45">
     <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $C44 = "")</formula>
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $C45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" priority="46" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B44 = "")</formula>
+      <formula>AND(AND(NOT($A45 = "end group"), NOT($A45 = "end repeat"), NOT($A45 = "")), $B45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
+  <conditionalFormatting sqref="A45">
     <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" priority="48" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>COUNTIF($B$2:$B$1007,B44)&gt;1</formula>
+      <formula>COUNTIF($B$2:$B$1008,B45)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
+  <conditionalFormatting sqref="H45">
     <cfRule type="expression" priority="49" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
+      <formula>AND(NOT($G45 = ""), $H45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
+  <conditionalFormatting sqref="A45:Z45">
     <cfRule type="expression" priority="50" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
+      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:Z44">
+  <conditionalFormatting sqref="A45:Z45">
     <cfRule type="expression" priority="51" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
+      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D47">
+  <conditionalFormatting sqref="D46:D48">
     <cfRule type="containsText" priority="52" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="calculate" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D47">
+  <conditionalFormatting sqref="D46:D48">
     <cfRule type="expression" priority="53" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A45="begin group", NOT($B45 = ""))</formula>
+      <formula>AND($A46="begin group", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D47">
+  <conditionalFormatting sqref="D46:D48">
     <cfRule type="expression" priority="54" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>AND($A45="end group", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D47">
+  <conditionalFormatting sqref="D46:D48">
     <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D47">
+  <conditionalFormatting sqref="D46:D48">
     <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A45="begin repeat", NOT($B45 = ""))</formula>
+      <formula>AND($A46="begin repeat", NOT($B46 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D47">
+  <conditionalFormatting sqref="D46:D48">
     <cfRule type="expression" priority="57" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>AND($A45="end repeat", $B45 = "", $C45 = "", $D45 = "", $E45 = "", $F45 = "", $G45 = "", $H45 = "", $I45 = "", $J45 = "", $K45 = "", $L45 = "", $M45 = "")</formula>
+      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", $G46 = "", $H46 = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D37:D47" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="D38:D48" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3978,7 +4035,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="31" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -3992,13 +4049,13 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -4006,13 +4063,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -4020,13 +4077,13 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -4034,13 +4091,13 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -4048,13 +4105,13 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -4062,13 +4119,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -4076,13 +4133,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -4090,13 +4147,13 @@
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -4104,13 +4161,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -4118,13 +4175,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -4133,57 +4190,57 @@
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4194,46 +4251,46 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5232,19 +5289,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5270,18 +5327,18 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" s="35" t="n">
         <f aca="true">NOW()</f>
-        <v>43693.4650633892</v>
+        <v>43695.3096812615</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
